--- a/Spreadsheets/Quick.xlsx
+++ b/Spreadsheets/Quick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwin365-my.sharepoint.com/personal/faverog_uwindsor_ca/Documents/Recipe Management/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{C4A7B21E-7BD9-46FD-AC1A-8D0C058380CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A583D71-6142-4B77-97C2-57C685E35343}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{C4A7B21E-7BD9-46FD-AC1A-8D0C058380CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A086B8E-EAB7-4502-A468-9FF3ADCEAADE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="2" activeTab="5" xr2:uid="{E94F2D1F-1DEE-43DA-830F-AACD9EF0001E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="1" xr2:uid="{E94F2D1F-1DEE-43DA-830F-AACD9EF0001E}"/>
   </bookViews>
   <sheets>
     <sheet name="Frozen Pizza" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Ingredients</t>
   </si>
   <si>
-    <t>Lipton Chicken Noodle Soup</t>
-  </si>
-  <si>
     <t>Eggs</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Peas</t>
+  </si>
+  <si>
+    <t>Lipton Envelope</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B409E3-624E-4903-BD13-BB0BABCC7596}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,22 +506,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -548,15 +548,15 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -583,37 +583,37 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -640,47 +640,47 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D0C80B-B5D2-4A0C-8D9A-63DB21FD210A}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -707,37 +707,37 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
